--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6600480191343185</v>
+        <v>0.7441183924563006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9806126606398836</v>
+        <v>0.9781432935476794</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7441183924563006</v>
+        <v>0.7401163941692293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9781432935476794</v>
+        <v>0.9782608427208619</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7401163941692293</v>
+        <v>0.7399047889235683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9782608427208619</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9782670581212405</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6669627832707453</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7399047889235683</v>
+        <v>0.6645926274483194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9782670581212405</v>
+        <v>0.9804791735888083</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6669627832707453</v>
+        <v>0.6051733866243391</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model',
+                 AdaBoostRegressor(learning_rate=0.5, n_estimators=100))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6645926274483194</v>
+        <v>0.7169911074822892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9804791735888083</v>
+        <v>0.9789400929690297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6051733866243391</v>
+        <v>0.6525923309357241</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,9 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 AdaBoostRegressor(learning_rate=0.5, n_estimators=100))])</t>
-        </is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.5))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1228190763666741</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7169911074822892</v>
+        <v>0.6732267490907212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9789400929690297</v>
+        <v>0.9802255668185353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6525923309357241</v>
+        <v>0.6073510555964173</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.5))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1228190763666741</v>
+        <v>0.1245368939167141</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.983</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Ceguera.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ceguera.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6732267490907212</v>
+        <v>0.7202794431374137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9802255668185353</v>
+        <v>0.9788435059368326</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6073510555964173</v>
+        <v>0.6477765369869576</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
+          <t>Pipeline(steps=[('model',
+                 AdaBoostRegressor(learning_rate=0.5, n_estimators=100))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1245368939167141</v>
+        <v>0.1242467469831657</v>
       </c>
       <c r="H2" t="n">
-        <v>0.983</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
